--- a/model/results/mix5_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_emissions.xlsx
@@ -793,7 +793,7 @@
         <v>816538.3333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>849791.0256410256</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="G3" t="n">
         <v>65600</v>
@@ -924,7 +924,7 @@
         <v>816538.3333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>849791.0256410256</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="G4" t="n">
         <v>65600</v>
@@ -1055,7 +1055,7 @@
         <v>816538.3333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>849791.0256410256</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="G5" t="n">
         <v>65600</v>
@@ -1094,7 +1094,7 @@
         <v>41000</v>
       </c>
       <c r="S5" t="n">
-        <v>213200</v>
+        <v>213200.0000000039</v>
       </c>
       <c r="T5" t="n">
         <v>4100</v>
@@ -1177,16 +1177,16 @@
         <v>2776335.897435897</v>
       </c>
       <c r="C6" t="n">
-        <v>2776335.897435897</v>
+        <v>2328566.33046193</v>
       </c>
       <c r="D6" t="n">
-        <v>2182632.972936915</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="E6" t="n">
-        <v>624411.6666666666</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>465537.6923076923</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1198,7 +1198,7 @@
         <v>17600</v>
       </c>
       <c r="J6" t="n">
-        <v>205000</v>
+        <v>204999.9999999999</v>
       </c>
       <c r="K6" t="n">
         <v>32800</v>
@@ -1216,10 +1216,10 @@
         <v>92250</v>
       </c>
       <c r="P6" t="n">
-        <v>164000</v>
+        <v>163999.9999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>61499.99999999999</v>
+        <v>61499.99999999998</v>
       </c>
       <c r="R6" t="n">
         <v>20500</v>
@@ -1234,7 +1234,7 @@
         <v>55350</v>
       </c>
       <c r="V6" t="n">
-        <v>41000</v>
+        <v>40999.99999999999</v>
       </c>
       <c r="W6" t="n">
         <v>14350</v>
@@ -1243,7 +1243,7 @@
         <v>90200</v>
       </c>
       <c r="Y6" t="n">
-        <v>75850</v>
+        <v>75849.99999999997</v>
       </c>
       <c r="Z6" t="n">
         <v>41000</v>
@@ -1261,7 +1261,7 @@
         <v>6150</v>
       </c>
       <c r="AE6" t="n">
-        <v>55350</v>
+        <v>55349.99999999998</v>
       </c>
       <c r="AF6" t="n">
         <v>12300</v>
@@ -1308,16 +1308,16 @@
         <v>2776335.897435897</v>
       </c>
       <c r="C7" t="n">
-        <v>2776335.897435897</v>
+        <v>2328566.33046193</v>
       </c>
       <c r="D7" t="n">
-        <v>2182632.972936915</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="E7" t="n">
-        <v>624411.6666666666</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F7" t="n">
-        <v>81284.35897435877</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G7" t="n">
         <v>65600</v>
@@ -1329,7 +1329,7 @@
         <v>17600</v>
       </c>
       <c r="J7" t="n">
-        <v>194750</v>
+        <v>194749.9999999999</v>
       </c>
       <c r="K7" t="n">
         <v>31160</v>
@@ -1341,19 +1341,19 @@
         <v>25317.5</v>
       </c>
       <c r="N7" t="n">
-        <v>17527.5</v>
+        <v>17527.49999999999</v>
       </c>
       <c r="O7" t="n">
         <v>87637.49999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>155800</v>
+        <v>155799.9999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>58424.99999999999</v>
+        <v>58424.99999999998</v>
       </c>
       <c r="R7" t="n">
-        <v>19475</v>
+        <v>19474.99999999999</v>
       </c>
       <c r="S7" t="n">
         <v>101270</v>
@@ -1368,13 +1368,13 @@
         <v>38949.99999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>13632.5</v>
+        <v>13632.49999999999</v>
       </c>
       <c r="X7" t="n">
         <v>85689.99999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>72057.49999999999</v>
+        <v>72057.49999999997</v>
       </c>
       <c r="Z7" t="n">
         <v>38949.99999999999</v>
@@ -1386,16 +1386,16 @@
         <v>973.7499999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>23370</v>
+        <v>23369.99999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>5842.499999999999</v>
+        <v>5842.499999999997</v>
       </c>
       <c r="AE7" t="n">
-        <v>52582.49999999999</v>
+        <v>52582.49999999998</v>
       </c>
       <c r="AF7" t="n">
-        <v>11685</v>
+        <v>11684.99999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>2106298.201108699</v>
+        <v>2776335.897435897</v>
       </c>
       <c r="C8" t="n">
-        <v>1520949.23076923</v>
+        <v>2328566.33046193</v>
       </c>
       <c r="D8" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025627</v>
       </c>
       <c r="E8" t="n">
-        <v>624411.6666666666</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>81284.35897435881</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G8" t="n">
         <v>65600</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>265562.5641025636</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C9" t="n">
-        <v>1520949.23076923</v>
+        <v>265562.5641025627</v>
       </c>
       <c r="D9" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="E9" t="n">
-        <v>240158.3333333332</v>
+        <v>432284.9999999998</v>
       </c>
       <c r="F9" t="n">
-        <v>81284.35897435881</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1642,10 +1642,10 @@
         <v>6150.000000000011</v>
       </c>
       <c r="AA9" t="n">
-        <v>30.75000000000006</v>
+        <v>30.75000000000008</v>
       </c>
       <c r="AB9" t="n">
-        <v>153.7499999999982</v>
+        <v>153.7500000000003</v>
       </c>
       <c r="AC9" t="n">
         <v>3690.000000000007</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C10" t="n">
-        <v>265562.5641025636</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="D10" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="E10" t="n">
-        <v>240158.3333333333</v>
+        <v>432284.9999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>81284.35897435881</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G10" t="n">
         <v>65600</v>
@@ -1773,10 +1773,10 @@
         <v>4099.999999999998</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.49999999999999</v>
+        <v>20.50000000000002</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.4999999999979</v>
+        <v>102.5</v>
       </c>
       <c r="AC10" t="n">
         <v>2459.999999999999</v>
@@ -1832,16 +1832,16 @@
         <v>265562.5641025634</v>
       </c>
       <c r="C11" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="D11" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="E11" t="n">
-        <v>240158.3333333333</v>
+        <v>81284.35897435853</v>
       </c>
       <c r="F11" t="n">
-        <v>81284.35897435877</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G11" t="n">
         <v>65600</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB11" t="n">
-        <v>-2.081668171172169e-12</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>265562.5641025634</v>
       </c>
       <c r="C12" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="D12" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E12" t="n">
-        <v>240158.3333333333</v>
+        <v>81284.35897435859</v>
       </c>
       <c r="F12" t="n">
-        <v>81284.35897435877</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G12" t="n">
         <v>65600</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB12" t="n">
-        <v>-2.081668171172169e-12</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C13" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025628</v>
       </c>
       <c r="D13" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="E13" t="n">
-        <v>240158.3333333257</v>
+        <v>81284.35897435859</v>
       </c>
       <c r="F13" t="n">
-        <v>81284.35897435877</v>
+        <v>568494.2039800995</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB13" t="n">
-        <v>-2.081668171172169e-12</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2225,16 +2225,16 @@
         <v>265562.5641025634</v>
       </c>
       <c r="C14" t="n">
-        <v>265562.5641025483</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D14" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="E14" t="n">
-        <v>240158.3333333315</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F14" t="n">
-        <v>81284.35897435877</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB14" t="n">
-        <v>-2.081668171172169e-12</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C15" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="D15" t="n">
-        <v>265562.5641025482</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="E15" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F15" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025592</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F16" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-2.775557561562891e-14</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.387778780781446e-13</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025442</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025621</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F17" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025592</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025592</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F18" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025592</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F19" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="C20" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025588</v>
       </c>
       <c r="D20" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.5641025592</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>81284.35897435881</v>
       </c>
       <c r="F20" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.564102544</v>
       </c>
       <c r="C21" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025549</v>
+        <v>265562.564102544</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>81284.35897435877</v>
       </c>
       <c r="F21" t="n">
-        <v>81284.35897435615</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
@@ -3214,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.387778780781446e-13</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
